--- a/assets/excel/volume.xlsx
+++ b/assets/excel/volume.xlsx
@@ -36,9 +36,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="1">
-  <si>
-    <t xml:space="preserve">0.63</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+  <si>
+    <t xml:space="preserve">0.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.41</t>
   </si>
 </sst>
 </file>
@@ -74,8 +110,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -429,67 +502,67 @@
     </row>
     <row r="2">
       <c r="B2" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="0" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="0" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="0" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="0" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="0" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="0" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="0" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="0" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="0" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="0" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="0" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="0" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">

--- a/assets/excel/volume.xlsx
+++ b/assets/excel/volume.xlsx
@@ -36,45 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="1">
   <si>
-    <t xml:space="preserve">0.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.41</t>
+    <t xml:space="preserve">0.71</t>
   </si>
 </sst>
 </file>
@@ -110,8 +74,978 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="1034">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -502,67 +1436,67 @@
     </row>
     <row r="2">
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="0" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="0" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="0" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="0" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="0" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="0" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="0" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="0" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="0" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="0" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">

--- a/assets/excel/volume.xlsx
+++ b/assets/excel/volume.xlsx
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="1">
   <si>
-    <t xml:space="preserve">0.71</t>
+    <t xml:space="preserve">0.80</t>
   </si>
 </sst>
 </file>
@@ -74,8 +74,217 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1034">
+  <cellXfs count="1243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>

--- a/assets/excel/volume.xlsx
+++ b/assets/excel/volume.xlsx
@@ -36,9 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="2">
   <si>
-    <t xml:space="preserve">0.80</t>
+    <t xml:space="preserve">0.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.73</t>
   </si>
 </sst>
 </file>
@@ -74,8 +77,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1243">
+  <cellXfs count="1271">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -1695,7 +1726,7 @@
     </row>
     <row r="12">
       <c r="B12" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">

--- a/assets/excel/volume.xlsx
+++ b/assets/excel/volume.xlsx
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="1">
   <si>
-    <t xml:space="preserve">0.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.73</t>
+    <t xml:space="preserve">0.78</t>
   </si>
 </sst>
 </file>
@@ -77,8 +74,65 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1271">
+  <cellXfs count="1328">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -1726,7 +1780,7 @@
     </row>
     <row r="12">
       <c r="B12" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
